--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EF0CCB-3427-4C77-A774-DF20F7028C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B656B0-BC2F-4751-A6EE-F23149FC2A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ambitions" sheetId="2" r:id="rId1"/>
-    <sheet name="pypsa-za" sheetId="3" r:id="rId2"/>
-    <sheet name="updated" sheetId="1" r:id="rId3"/>
+    <sheet name="original" sheetId="4" r:id="rId1"/>
+    <sheet name="ambitions" sheetId="2" r:id="rId2"/>
+    <sheet name="pypsa-za" sheetId="3" r:id="rId3"/>
+    <sheet name="updated" sheetId="1" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ambitions!$A$1:$B$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">updated!$A$1:$F$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ambitions!$A$1:$B$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">original!$A$1:$B$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">updated!$A$1:$F$195</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="152">
   <si>
     <t>technology</t>
   </si>
@@ -1619,10 +1621,1499 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9161570-D232-4C75-BEA4-A6A23D1A7F9E}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>2040</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.08</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>6000</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <f>'[1]csir-today'!$B$2</f>
+        <v>35463</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>6000</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>6000</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>3000</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f>'[1]csir-today'!$E$2</f>
+        <v>8173</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f>'[1]csir-today'!$C$2</f>
+        <v>60447</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f>'[1]csir-today'!$D$2</f>
+        <v>8975</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <f>'[1]csir-today'!$F$3</f>
+        <v>4</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>2.6</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>2.6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>2.6</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>1.8</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>1.6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>0.02</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>0.01</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>80</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>2.4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>540</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>29</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>98</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65">
+        <v>0.187</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69">
+        <v>0.248</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>12000</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73">
+        <v>2.5</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>6000</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>6000</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>40</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>40</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>40</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B87" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="investment"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -4338,12 +5829,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5029,7 +6520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F195"/>

--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B656B0-BC2F-4751-A6EE-F23149FC2A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234DF095-8292-491D-B3C4-4A3FC278906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="7840" windowWidth="18180" windowHeight="2820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="original" sheetId="4" r:id="rId1"/>
-    <sheet name="ambitions" sheetId="2" r:id="rId2"/>
-    <sheet name="pypsa-za" sheetId="3" r:id="rId3"/>
-    <sheet name="updated" sheetId="1" r:id="rId4"/>
+    <sheet name="za_original" sheetId="5" r:id="rId1"/>
+    <sheet name="original" sheetId="4" r:id="rId2"/>
+    <sheet name="ambitions" sheetId="2" r:id="rId3"/>
+    <sheet name="pypsa-za-original" sheetId="3" r:id="rId4"/>
+    <sheet name="updated" sheetId="1" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ambitions!$A$1:$B$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">original!$A$1:$B$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">updated!$A$1:$F$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ambitions!$A$1:$B$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$B$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">updated!$A$1:$F$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">za_original!$A$1:$B$94</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="155">
   <si>
     <t>technology</t>
   </si>
@@ -536,6 +538,15 @@
   </si>
   <si>
     <t>ZAR/MWhth</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>_original</t>
   </si>
 </sst>
 </file>
@@ -684,7 +695,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,6 +887,12 @@
         <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1038,7 +1055,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1047,6 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1621,1500 +1639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9161570-D232-4C75-BEA4-A6A23D1A7F9E}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83FE029-657E-4ADB-BFF8-5DD15DBF8F4F}">
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>2040</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>0.08</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0.08</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.08</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>80</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>60</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>10000</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>6000</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21">
-        <f>'[1]csir-today'!$B$2</f>
-        <v>35463</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>6000</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23">
-        <v>6000</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>2000</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>2000</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>3000</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27">
-        <f>'[1]csir-today'!$E$2</f>
-        <v>8173</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <f>'[1]csir-today'!$C$2</f>
-        <v>60447</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <f>'[1]csir-today'!$D$2</f>
-        <v>8975</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>400</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31">
-        <f>'[1]csir-today'!$F$3</f>
-        <v>4</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35">
-        <v>2.6</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36">
-        <v>2.6</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>2.6</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
-        <v>1.8</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42">
-        <v>1.6</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44">
-        <v>0.02</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45">
-        <v>0.01</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46">
-        <v>80</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47">
-        <v>22</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <v>2.4</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>37</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50">
-        <v>540</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53">
-        <v>29</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55">
-        <v>98</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56">
-        <v>50</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65">
-        <v>0.187</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69">
-        <v>0.248</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70">
-        <v>12000</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71">
-        <v>20</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73">
-        <v>2.5</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E73" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76">
-        <v>6000</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>121</v>
-      </c>
-      <c r="B77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77">
-        <v>40</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79">
-        <v>6000</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E79" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80">
-        <v>40</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83">
-        <v>40</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>124</v>
-      </c>
-      <c r="B84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E84" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86">
-        <v>40</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B87" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="investment"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3619,7 +2148,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -3647,8 +2176,8 @@
       <c r="E18">
         <v>11187.5</v>
       </c>
-      <c r="F18">
-        <v>10544</v>
+      <c r="F18" s="6">
+        <v>10000</v>
       </c>
       <c r="G18">
         <v>9891</v>
@@ -3679,8 +2208,8 @@
       <c r="E19">
         <v>6264</v>
       </c>
-      <c r="F19">
-        <v>5363</v>
+      <c r="F19" s="6">
+        <v>6000</v>
       </c>
       <c r="G19">
         <v>4940</v>
@@ -3713,7 +2242,7 @@
         <f t="shared" si="0"/>
         <v>1789.2900000000002</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>1610.3610000000001</v>
       </c>
@@ -3740,22 +2269,22 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>48188</v>
+        <v>35463</v>
       </c>
       <c r="D21">
-        <v>48188</v>
+        <v>35463</v>
       </c>
       <c r="E21">
-        <v>48188</v>
-      </c>
-      <c r="F21">
-        <v>48188</v>
+        <v>35463</v>
+      </c>
+      <c r="F21" s="6">
+        <v>35463</v>
       </c>
       <c r="G21">
-        <v>48188</v>
+        <v>35463</v>
       </c>
       <c r="H21">
-        <v>48188</v>
+        <v>35463</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>31</v>
@@ -3772,28 +2301,28 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <f>1.5*C23</f>
-        <v>13960.5</v>
+        <f>C19</f>
+        <v>9307</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:H22" si="1">0.9*C22</f>
-        <v>12564.45</v>
+        <f t="shared" ref="D22:H22" si="1">D19</f>
+        <v>7165</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>11308.005000000001</v>
-      </c>
-      <c r="F22">
+        <v>6264</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
-        <v>10177.204500000002</v>
+        <v>6000</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>9159.4840500000009</v>
+        <v>4940</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>8243.5356450000018</v>
+        <v>4517</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>31</v>
@@ -3810,21 +2339,27 @@
         <v>30</v>
       </c>
       <c r="C23">
+        <f>C22</f>
         <v>9307</v>
       </c>
       <c r="D23">
+        <f t="shared" ref="D23:H23" si="2">D22</f>
         <v>7165</v>
       </c>
       <c r="E23">
+        <f t="shared" si="2"/>
         <v>6264</v>
       </c>
       <c r="F23">
-        <v>5363</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="G23">
+        <f t="shared" si="2"/>
         <v>4940</v>
       </c>
       <c r="H23">
+        <f t="shared" si="2"/>
         <v>4517</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -3850,7 +2385,7 @@
       <c r="E24">
         <v>2000</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>2000</v>
       </c>
       <c r="G24">
@@ -3882,7 +2417,7 @@
       <c r="E25">
         <v>2000</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>2000</v>
       </c>
       <c r="G25">
@@ -3914,7 +2449,7 @@
       <c r="E26">
         <v>3000</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>3000</v>
       </c>
       <c r="G26">
@@ -3938,22 +2473,28 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>10754</v>
+        <f>'[1]csir-today'!$E$2</f>
+        <v>8173</v>
       </c>
       <c r="D27">
-        <v>10754</v>
+        <f>'[1]csir-today'!$E$2</f>
+        <v>8173</v>
       </c>
       <c r="E27">
-        <v>10754</v>
+        <f>'[1]csir-today'!$E$2</f>
+        <v>8173</v>
       </c>
       <c r="F27">
-        <v>10754</v>
+        <f>'[1]csir-today'!$E$2</f>
+        <v>8173</v>
       </c>
       <c r="G27">
-        <v>10754</v>
+        <f>'[1]csir-today'!$E$2</f>
+        <v>8173</v>
       </c>
       <c r="H27">
-        <v>10754</v>
+        <f>'[1]csir-today'!$E$2</f>
+        <v>8173</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>31</v>
@@ -3970,22 +2511,28 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>91968</v>
+        <f>'[1]csir-today'!$C$2</f>
+        <v>60447</v>
       </c>
       <c r="D28">
-        <v>91968</v>
+        <f>'[1]csir-today'!$C$2</f>
+        <v>60447</v>
       </c>
       <c r="E28">
-        <v>91968</v>
+        <f>'[1]csir-today'!$C$2</f>
+        <v>60447</v>
       </c>
       <c r="F28">
-        <v>91968</v>
+        <f>'[1]csir-today'!$C$2</f>
+        <v>60447</v>
       </c>
       <c r="G28">
-        <v>91968</v>
+        <f>'[1]csir-today'!$C$2</f>
+        <v>60447</v>
       </c>
       <c r="H28">
-        <v>91968</v>
+        <f>'[1]csir-today'!$C$2</f>
+        <v>60447</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>31</v>
@@ -4002,22 +2549,28 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>12199</v>
+        <f>'[1]csir-today'!$D$2</f>
+        <v>8975</v>
       </c>
       <c r="D29">
-        <v>12199</v>
+        <f>'[1]csir-today'!$D$2</f>
+        <v>8975</v>
       </c>
       <c r="E29">
-        <v>12199</v>
+        <f>'[1]csir-today'!$D$2</f>
+        <v>8975</v>
       </c>
       <c r="F29">
-        <v>12199</v>
+        <f>'[1]csir-today'!$D$2</f>
+        <v>8975</v>
       </c>
       <c r="G29">
-        <v>12199</v>
+        <f>'[1]csir-today'!$D$2</f>
+        <v>8975</v>
       </c>
       <c r="H29">
-        <v>12199</v>
+        <f>'[1]csir-today'!$D$2</f>
+        <v>8975</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>31</v>
@@ -4028,7 +2581,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -4037,23 +2590,23 @@
         <v>400</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:H30" si="2">0.9*C30</f>
+        <f t="shared" ref="D30:H30" si="3">0.9*C30</f>
         <v>360</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
+      <c r="F30" s="6">
+        <f t="shared" si="3"/>
         <v>291.60000000000002</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>262.44000000000005</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>236.19600000000005</v>
       </c>
       <c r="I30" s="5" t="s">
@@ -4263,7 +2816,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
@@ -4682,21 +3235,27 @@
         <v>52</v>
       </c>
       <c r="C50">
+        <f>150*3.6</f>
         <v>540</v>
       </c>
       <c r="D50">
+        <f t="shared" ref="D50:H50" si="4">150*3.6</f>
         <v>540</v>
       </c>
       <c r="E50">
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
       <c r="F50">
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
       <c r="G50">
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
       <c r="H50">
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
       <c r="I50" s="5" t="s">
@@ -4722,7 +3281,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
@@ -4746,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
@@ -4806,22 +3365,28 @@
         <v>52</v>
       </c>
       <c r="C55">
-        <v>98</v>
+        <f>30*3.6</f>
+        <v>108</v>
       </c>
       <c r="D55">
-        <v>98</v>
+        <f t="shared" ref="D55:H55" si="5">30*3.6</f>
+        <v>108</v>
       </c>
       <c r="E55">
-        <v>98</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
       <c r="F55">
-        <v>98</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
       <c r="G55">
-        <v>98</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
       <c r="H55">
-        <v>98</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>151</v>
@@ -4832,31 +3397,37 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="B56" t="s">
         <v>52</v>
       </c>
       <c r="C56">
-        <v>50</v>
+        <f>50*18</f>
+        <v>900</v>
       </c>
       <c r="D56">
-        <v>50</v>
+        <f t="shared" ref="D56:H56" si="6">50*18</f>
+        <v>900</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>900</v>
       </c>
       <c r="F56">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>900</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>900</v>
       </c>
       <c r="H56">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>900</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
@@ -5184,7 +3755,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
         <v>57</v>
@@ -5248,7 +3819,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="B69" t="s">
         <v>58</v>
@@ -5293,19 +3864,19 @@
         <v>10800</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:H70" si="3">0.9*D70</f>
+        <f t="shared" ref="E70:H70" si="7">0.9*D70</f>
         <v>9720</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="3"/>
+      <c r="F70" s="6">
+        <f t="shared" si="7"/>
         <v>8748</v>
       </c>
       <c r="G70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7873.2</v>
       </c>
       <c r="H70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7085.88</v>
       </c>
       <c r="I70" s="5" t="s">
@@ -5427,7 +3998,7 @@
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="6">
         <v>0</v>
       </c>
       <c r="G74">
@@ -5491,7 +4062,7 @@
       <c r="E76">
         <v>6000</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="6">
         <v>6000</v>
       </c>
       <c r="G76">
@@ -5587,7 +4158,7 @@
       <c r="E79">
         <v>6000</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="6">
         <v>6000</v>
       </c>
       <c r="G79">
@@ -5823,18 +4394,4727 @@
         <v>122</v>
       </c>
     </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>30</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <v>30</v>
+      </c>
+      <c r="G88">
+        <v>30</v>
+      </c>
+      <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9161570-D232-4C75-BEA4-A6A23D1A7F9E}">
+  <dimension ref="A1:E94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>2040</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.08</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>6000</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <f>'[1]csir-today'!$B$2</f>
+        <v>35463</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>6000</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>6000</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>3000</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f>'[1]csir-today'!$E$2</f>
+        <v>8173</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f>'[1]csir-today'!$C$2</f>
+        <v>60447</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f>'[1]csir-today'!$D$2</f>
+        <v>8975</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <f>'[1]csir-today'!$F$3</f>
+        <v>4</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>2.6</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>2.6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>2.6</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>1.8</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>1.6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>0.02</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>0.01</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>80</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>2.4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>540</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>29</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>98</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65">
+        <v>0.187</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69">
+        <v>0.248</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>12000</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73">
+        <v>2.5</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>6000</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>6000</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>40</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>40</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>40</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92">
+        <v>50</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.81640625" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>2025</v>
+      </c>
+      <c r="D1">
+        <v>2030</v>
+      </c>
+      <c r="E1">
+        <v>2035</v>
+      </c>
+      <c r="F1">
+        <v>2040</v>
+      </c>
+      <c r="G1">
+        <v>2045</v>
+      </c>
+      <c r="H1">
+        <v>2050</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.08</v>
+      </c>
+      <c r="D2">
+        <v>0.08</v>
+      </c>
+      <c r="E2">
+        <v>0.08</v>
+      </c>
+      <c r="F2">
+        <v>0.08</v>
+      </c>
+      <c r="G2">
+        <v>0.08</v>
+      </c>
+      <c r="H2">
+        <v>0.08</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+      <c r="D3">
+        <v>0.08</v>
+      </c>
+      <c r="E3">
+        <v>0.08</v>
+      </c>
+      <c r="F3">
+        <v>0.08</v>
+      </c>
+      <c r="G3">
+        <v>0.08</v>
+      </c>
+      <c r="H3">
+        <v>0.08</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4">
+        <v>0.08</v>
+      </c>
+      <c r="E4">
+        <v>0.08</v>
+      </c>
+      <c r="F4">
+        <v>0.08</v>
+      </c>
+      <c r="G4">
+        <v>0.08</v>
+      </c>
+      <c r="H4">
+        <v>0.08</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>13131</v>
+      </c>
+      <c r="D18">
+        <v>11831</v>
+      </c>
+      <c r="E18">
+        <v>11187.5</v>
+      </c>
+      <c r="F18">
+        <v>10544</v>
+      </c>
+      <c r="G18">
+        <v>9891</v>
+      </c>
+      <c r="H18">
+        <v>9238</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>9307</v>
+      </c>
+      <c r="D19">
+        <v>7165</v>
+      </c>
+      <c r="E19">
+        <v>6264</v>
+      </c>
+      <c r="F19">
+        <v>5363</v>
+      </c>
+      <c r="G19">
+        <v>4940</v>
+      </c>
+      <c r="H19">
+        <v>4517</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>2209</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:H20" si="0">0.9*C20</f>
+        <v>1988.1000000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1789.2900000000002</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1610.3610000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1449.3249000000001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1304.3924100000002</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>48188</v>
+      </c>
+      <c r="D21">
+        <v>48188</v>
+      </c>
+      <c r="E21">
+        <v>48188</v>
+      </c>
+      <c r="F21">
+        <v>48188</v>
+      </c>
+      <c r="G21">
+        <v>48188</v>
+      </c>
+      <c r="H21">
+        <v>48188</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <f>1.5*C23</f>
+        <v>13960.5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:H22" si="1">0.9*C22</f>
+        <v>12564.45</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>11308.005000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>10177.204500000002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>9159.4840500000009</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>8243.5356450000018</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>9307</v>
+      </c>
+      <c r="D23">
+        <v>7165</v>
+      </c>
+      <c r="E23">
+        <v>6264</v>
+      </c>
+      <c r="F23">
+        <v>5363</v>
+      </c>
+      <c r="G23">
+        <v>4940</v>
+      </c>
+      <c r="H23">
+        <v>4517</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>2000</v>
+      </c>
+      <c r="F24">
+        <v>2000</v>
+      </c>
+      <c r="G24">
+        <v>2000</v>
+      </c>
+      <c r="H24">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+      <c r="F25">
+        <v>2000</v>
+      </c>
+      <c r="G25">
+        <v>2000</v>
+      </c>
+      <c r="H25">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>3000</v>
+      </c>
+      <c r="D26">
+        <v>3000</v>
+      </c>
+      <c r="E26">
+        <v>3000</v>
+      </c>
+      <c r="F26">
+        <v>3000</v>
+      </c>
+      <c r="G26">
+        <v>3000</v>
+      </c>
+      <c r="H26">
+        <v>3000</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>10754</v>
+      </c>
+      <c r="D27">
+        <v>10754</v>
+      </c>
+      <c r="E27">
+        <v>10754</v>
+      </c>
+      <c r="F27">
+        <v>10754</v>
+      </c>
+      <c r="G27">
+        <v>10754</v>
+      </c>
+      <c r="H27">
+        <v>10754</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>91968</v>
+      </c>
+      <c r="D28">
+        <v>91968</v>
+      </c>
+      <c r="E28">
+        <v>91968</v>
+      </c>
+      <c r="F28">
+        <v>91968</v>
+      </c>
+      <c r="G28">
+        <v>91968</v>
+      </c>
+      <c r="H28">
+        <v>91968</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>12199</v>
+      </c>
+      <c r="D29">
+        <v>12199</v>
+      </c>
+      <c r="E29">
+        <v>12199</v>
+      </c>
+      <c r="F29">
+        <v>12199</v>
+      </c>
+      <c r="G29">
+        <v>12199</v>
+      </c>
+      <c r="H29">
+        <v>12199</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:H30" si="2">0.9*C30</f>
+        <v>360</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>262.44000000000005</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>236.19600000000005</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <f>'[1]csir-today'!$F$3</f>
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f>'[1]csir-today'!$F$3</f>
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <f>'[1]csir-today'!$F$3</f>
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <f>'[1]csir-today'!$F$3</f>
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <f>'[1]csir-today'!$F$3</f>
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <f>'[1]csir-today'!$F$3</f>
+        <v>4</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>2.6</v>
+      </c>
+      <c r="D35">
+        <v>2.6</v>
+      </c>
+      <c r="E35">
+        <v>2.6</v>
+      </c>
+      <c r="F35">
+        <v>2.6</v>
+      </c>
+      <c r="G35">
+        <v>2.6</v>
+      </c>
+      <c r="H35">
+        <v>2.6</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>2.6</v>
+      </c>
+      <c r="D36">
+        <v>2.6</v>
+      </c>
+      <c r="E36">
+        <v>2.6</v>
+      </c>
+      <c r="F36">
+        <v>2.6</v>
+      </c>
+      <c r="G36">
+        <v>2.6</v>
+      </c>
+      <c r="H36">
+        <v>2.6</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>2.6</v>
+      </c>
+      <c r="D37">
+        <v>2.6</v>
+      </c>
+      <c r="E37">
+        <v>2.6</v>
+      </c>
+      <c r="F37">
+        <v>2.6</v>
+      </c>
+      <c r="G37">
+        <v>2.6</v>
+      </c>
+      <c r="H37">
+        <v>2.6</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>1.8</v>
+      </c>
+      <c r="D41">
+        <v>1.8</v>
+      </c>
+      <c r="E41">
+        <v>1.8</v>
+      </c>
+      <c r="F41">
+        <v>1.8</v>
+      </c>
+      <c r="G41">
+        <v>1.8</v>
+      </c>
+      <c r="H41">
+        <v>1.8</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>1.6</v>
+      </c>
+      <c r="D42">
+        <v>1.6</v>
+      </c>
+      <c r="E42">
+        <v>1.6</v>
+      </c>
+      <c r="F42">
+        <v>1.6</v>
+      </c>
+      <c r="G42">
+        <v>1.6</v>
+      </c>
+      <c r="H42">
+        <v>1.6</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>0.02</v>
+      </c>
+      <c r="D44">
+        <v>0.02</v>
+      </c>
+      <c r="E44">
+        <v>0.02</v>
+      </c>
+      <c r="F44">
+        <v>0.02</v>
+      </c>
+      <c r="G44">
+        <v>0.02</v>
+      </c>
+      <c r="H44">
+        <v>0.02</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>0.01</v>
+      </c>
+      <c r="D45">
+        <v>0.01</v>
+      </c>
+      <c r="E45">
+        <v>0.01</v>
+      </c>
+      <c r="F45">
+        <v>0.01</v>
+      </c>
+      <c r="G45">
+        <v>0.01</v>
+      </c>
+      <c r="H45">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>80</v>
+      </c>
+      <c r="D46">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <v>80</v>
+      </c>
+      <c r="F46">
+        <v>80</v>
+      </c>
+      <c r="G46">
+        <v>80</v>
+      </c>
+      <c r="H46">
+        <v>80</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>22</v>
+      </c>
+      <c r="G47">
+        <v>22</v>
+      </c>
+      <c r="H47">
+        <v>22</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>2.4</v>
+      </c>
+      <c r="D48">
+        <v>2.4</v>
+      </c>
+      <c r="E48">
+        <v>2.4</v>
+      </c>
+      <c r="F48">
+        <v>2.4</v>
+      </c>
+      <c r="G48">
+        <v>2.4</v>
+      </c>
+      <c r="H48">
+        <v>2.4</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>37</v>
+      </c>
+      <c r="E49">
+        <v>37</v>
+      </c>
+      <c r="F49">
+        <v>37</v>
+      </c>
+      <c r="G49">
+        <v>37</v>
+      </c>
+      <c r="H49">
+        <v>37</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>540</v>
+      </c>
+      <c r="D50">
+        <v>540</v>
+      </c>
+      <c r="E50">
+        <v>540</v>
+      </c>
+      <c r="F50">
+        <v>540</v>
+      </c>
+      <c r="G50">
+        <v>540</v>
+      </c>
+      <c r="H50">
+        <v>540</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>29</v>
+      </c>
+      <c r="D53">
+        <v>29</v>
+      </c>
+      <c r="E53">
+        <v>29</v>
+      </c>
+      <c r="F53">
+        <v>29</v>
+      </c>
+      <c r="G53">
+        <v>29</v>
+      </c>
+      <c r="H53">
+        <v>29</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>98</v>
+      </c>
+      <c r="D55">
+        <v>98</v>
+      </c>
+      <c r="E55">
+        <v>98</v>
+      </c>
+      <c r="F55">
+        <v>98</v>
+      </c>
+      <c r="G55">
+        <v>98</v>
+      </c>
+      <c r="H55">
+        <v>98</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>50</v>
+      </c>
+      <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65">
+        <v>0.187</v>
+      </c>
+      <c r="D65">
+        <v>0.187</v>
+      </c>
+      <c r="E65">
+        <v>0.187</v>
+      </c>
+      <c r="F65">
+        <v>0.187</v>
+      </c>
+      <c r="G65">
+        <v>0.187</v>
+      </c>
+      <c r="H65">
+        <v>0.187</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="H68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69">
+        <v>0.248</v>
+      </c>
+      <c r="D69">
+        <v>0.248</v>
+      </c>
+      <c r="E69">
+        <v>0.248</v>
+      </c>
+      <c r="F69">
+        <v>0.248</v>
+      </c>
+      <c r="G69">
+        <v>0.248</v>
+      </c>
+      <c r="H69">
+        <v>0.248</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>12000</v>
+      </c>
+      <c r="D70">
+        <f>0.9*C70</f>
+        <v>10800</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:H70" si="3">0.9*D70</f>
+        <v>9720</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>8748</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>7873.2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>7085.88</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+      <c r="G71">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>20</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73">
+        <v>2.5</v>
+      </c>
+      <c r="D73">
+        <v>2.5</v>
+      </c>
+      <c r="E73">
+        <v>2.5</v>
+      </c>
+      <c r="F73">
+        <v>2.5</v>
+      </c>
+      <c r="G73">
+        <v>2.5</v>
+      </c>
+      <c r="H73">
+        <v>2.5</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>20</v>
+      </c>
+      <c r="H75">
+        <v>20</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>6000</v>
+      </c>
+      <c r="D76">
+        <v>6000</v>
+      </c>
+      <c r="E76">
+        <v>6000</v>
+      </c>
+      <c r="F76">
+        <v>6000</v>
+      </c>
+      <c r="G76">
+        <v>6000</v>
+      </c>
+      <c r="H76">
+        <v>6000</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <v>40</v>
+      </c>
+      <c r="G77">
+        <v>40</v>
+      </c>
+      <c r="H77">
+        <v>40</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>6000</v>
+      </c>
+      <c r="D79">
+        <v>6000</v>
+      </c>
+      <c r="E79">
+        <v>6000</v>
+      </c>
+      <c r="F79">
+        <v>6000</v>
+      </c>
+      <c r="G79">
+        <v>6000</v>
+      </c>
+      <c r="H79">
+        <v>6000</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>40</v>
+      </c>
+      <c r="D80">
+        <v>40</v>
+      </c>
+      <c r="E80">
+        <v>40</v>
+      </c>
+      <c r="F80">
+        <v>40</v>
+      </c>
+      <c r="G80">
+        <v>40</v>
+      </c>
+      <c r="H80">
+        <v>40</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>40</v>
+      </c>
+      <c r="D83">
+        <v>40</v>
+      </c>
+      <c r="E83">
+        <v>40</v>
+      </c>
+      <c r="F83">
+        <v>40</v>
+      </c>
+      <c r="G83">
+        <v>40</v>
+      </c>
+      <c r="H83">
+        <v>40</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>40</v>
+      </c>
+      <c r="D86">
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>40</v>
+      </c>
+      <c r="F86">
+        <v>40</v>
+      </c>
+      <c r="G86">
+        <v>40</v>
+      </c>
+      <c r="H86">
+        <v>40</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>30</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <v>30</v>
+      </c>
+      <c r="G88">
+        <v>30</v>
+      </c>
+      <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92">
+        <v>50</v>
+      </c>
+      <c r="D92">
+        <v>50</v>
+      </c>
+      <c r="E92">
+        <v>50</v>
+      </c>
+      <c r="F92">
+        <v>50</v>
+      </c>
+      <c r="G92">
+        <v>50</v>
+      </c>
+      <c r="H92">
+        <v>50</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5993,9 +9273,8 @@
         <f>'[1]csir-today'!$C$5</f>
         <v>37</v>
       </c>
-      <c r="D6">
-        <f>'[1]csir-today'!$D$5</f>
-        <v>22</v>
+      <c r="D6" t="s">
+        <v>154</v>
       </c>
       <c r="E6">
         <f>'[1]csir-today'!$E$5</f>
@@ -6520,13 +9799,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7317,7 +10596,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -8897,7 +12176,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>93</v>
       </c>
@@ -10441,7 +13720,7 @@
   <autoFilter ref="A1:F195" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="battery storage"/>
+        <filter val="oil"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">

--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234DF095-8292-491D-B3C4-4A3FC278906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBE505-28A0-4117-B9B3-C7795AF71104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="7840" windowWidth="18180" windowHeight="2820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="za_original" sheetId="5" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="155">
   <si>
     <t>technology</t>
   </si>
@@ -1640,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83FE029-657E-4ADB-BFF8-5DD15DBF8F4F}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B60" sqref="A60:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2146,7 +2146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2511,27 +2511,27 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <f>'[1]csir-today'!$C$2</f>
+        <f>'pypsa-za-original'!$C$3</f>
         <v>60447</v>
       </c>
       <c r="D28">
-        <f>'[1]csir-today'!$C$2</f>
+        <f>'pypsa-za-original'!$C$3</f>
         <v>60447</v>
       </c>
       <c r="E28">
-        <f>'[1]csir-today'!$C$2</f>
+        <f>'pypsa-za-original'!$C$3</f>
         <v>60447</v>
       </c>
       <c r="F28">
-        <f>'[1]csir-today'!$C$2</f>
+        <f>'pypsa-za-original'!$C$3</f>
         <v>60447</v>
       </c>
       <c r="G28">
-        <f>'[1]csir-today'!$C$2</f>
+        <f>'pypsa-za-original'!$C$3</f>
         <v>60447</v>
       </c>
       <c r="H28">
-        <f>'[1]csir-today'!$C$2</f>
+        <f>'pypsa-za-original'!$C$3</f>
         <v>60447</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -2540,8 +2540,16 @@
       <c r="J28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <f>C21/C28</f>
+        <v>0.58667923966449953</v>
+      </c>
+      <c r="R28">
+        <f>1-Q28</f>
+        <v>0.41332076033550047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2579,7 +2587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -2616,7 +2624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2654,7 +2662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3365,28 +3373,22 @@
         <v>52</v>
       </c>
       <c r="C55">
-        <f>30*3.6</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:H55" si="5">30*3.6</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E55">
-        <f t="shared" si="5"/>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H55">
-        <f t="shared" si="5"/>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>151</v>
@@ -3407,23 +3409,23 @@
         <v>900</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:H56" si="6">50*18</f>
+        <f t="shared" ref="D56:H56" si="5">50*18</f>
         <v>900</v>
       </c>
       <c r="E56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="F56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="I56" s="5" t="s">
@@ -3860,24 +3862,19 @@
         <v>12000</v>
       </c>
       <c r="D70">
-        <f>0.9*C70</f>
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:H70" si="7">0.9*D70</f>
-        <v>9720</v>
-      </c>
-      <c r="F70" s="6">
-        <f t="shared" si="7"/>
-        <v>8748</v>
+        <v>12000</v>
+      </c>
+      <c r="F70">
+        <v>12000</v>
       </c>
       <c r="G70">
-        <f t="shared" si="7"/>
-        <v>7873.2</v>
+        <v>12000</v>
       </c>
       <c r="H70">
-        <f t="shared" si="7"/>
-        <v>7085.88</v>
+        <v>12000</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>31</v>
@@ -6187,8 +6184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6733,9 +6730,6 @@
       <c r="I18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -6765,9 +6759,6 @@
       <c r="I19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -6802,9 +6793,6 @@
       <c r="I20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -6834,9 +6822,6 @@
       <c r="I21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J21" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -6872,9 +6857,6 @@
       <c r="I22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J22" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -6904,9 +6886,6 @@
       <c r="I23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -6936,9 +6915,6 @@
       <c r="I24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -6968,9 +6944,6 @@
       <c r="I25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -7000,9 +6973,6 @@
       <c r="I26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -7032,9 +7002,6 @@
       <c r="I27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -7064,9 +7031,6 @@
       <c r="I28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -7096,9 +7060,6 @@
       <c r="I29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J29" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -7133,9 +7094,6 @@
       <c r="I30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -7912,25 +7870,25 @@
         <v>52</v>
       </c>
       <c r="C56">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="D56">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="F56">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="H56">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
@@ -8363,30 +8321,22 @@
         <v>12000</v>
       </c>
       <c r="D70">
-        <f>0.9*C70</f>
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:H70" si="3">0.9*D70</f>
-        <v>9720</v>
+        <v>12000</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
-        <v>8748</v>
+        <v>12000</v>
       </c>
       <c r="G70">
-        <f t="shared" si="3"/>
-        <v>7873.2</v>
+        <v>12000</v>
       </c>
       <c r="H70">
-        <f t="shared" si="3"/>
-        <v>7085.88</v>
+        <v>12000</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="J70" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
@@ -8513,9 +8463,6 @@
       <c r="I74" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="J74" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -8577,9 +8524,6 @@
       <c r="I76" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J76" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -8673,9 +8617,6 @@
       <c r="I79" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J79" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -8751,9 +8692,6 @@
       <c r="I82" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J82" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -8829,9 +8767,6 @@
       <c r="I85" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J85" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -8938,9 +8873,6 @@
       </c>
       <c r="I89" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="J89" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
@@ -9114,7 +9046,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBE505-28A0-4117-B9B3-C7795AF71104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80715CB1-8415-4E3A-8DD2-5C40999E720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,6 @@
     <sheet name="pypsa-za-original" sheetId="3" r:id="rId4"/>
     <sheet name="updated" sheetId="1" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ambitions!$A$1:$B$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$B$94</definedName>
@@ -1124,225 +1121,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="csir-today"/>
-      <sheetName val="csir-moderate"/>
-      <sheetName val="csir-aggressive"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>35463</v>
-          </cell>
-          <cell r="C2">
-            <v>60447</v>
-          </cell>
-          <cell r="D2">
-            <v>8975</v>
-          </cell>
-          <cell r="E2">
-            <v>8173</v>
-          </cell>
-          <cell r="I2">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>2.6</v>
-          </cell>
-          <cell r="C3">
-            <v>1.6</v>
-          </cell>
-          <cell r="D3">
-            <v>1.8</v>
-          </cell>
-          <cell r="E3">
-            <v>2</v>
-          </cell>
-          <cell r="F3">
-            <v>4</v>
-          </cell>
-          <cell r="G3">
-            <v>2</v>
-          </cell>
-          <cell r="H3">
-            <v>2.5</v>
-          </cell>
-          <cell r="I3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>30</v>
-          </cell>
-          <cell r="C4">
-            <v>60</v>
-          </cell>
-          <cell r="D4">
-            <v>30</v>
-          </cell>
-          <cell r="E4">
-            <v>30</v>
-          </cell>
-          <cell r="F4">
-            <v>20</v>
-          </cell>
-          <cell r="G4">
-            <v>25</v>
-          </cell>
-          <cell r="H4">
-            <v>20</v>
-          </cell>
-          <cell r="I4">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>80</v>
-          </cell>
-          <cell r="C5">
-            <v>37</v>
-          </cell>
-          <cell r="D5">
-            <v>22</v>
-          </cell>
-          <cell r="E5">
-            <v>2.4</v>
-          </cell>
-          <cell r="H5">
-            <v>3.2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>98</v>
-          </cell>
-          <cell r="C6">
-            <v>29</v>
-          </cell>
-          <cell r="D6">
-            <v>540</v>
-          </cell>
-          <cell r="E6">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.37</v>
-          </cell>
-          <cell r="C7">
-            <v>0.34</v>
-          </cell>
-          <cell r="D7">
-            <v>0.49</v>
-          </cell>
-          <cell r="E7">
-            <v>0.31</v>
-          </cell>
-          <cell r="H7">
-            <v>0.89</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>348</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>181</v>
-          </cell>
-          <cell r="E8">
-            <v>181</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.18344883815735799</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.69710558499796205</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>9.74E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>9.3758138727320098E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>3.6689767631471699E-2</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>3.6689767631471699E-2</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-          <cell r="E12">
-            <v>3.1252712909106702E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>84.8</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>9.6</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2473,27 +2251,21 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <f>'[1]csir-today'!$E$2</f>
         <v>8173</v>
       </c>
       <c r="D27">
-        <f>'[1]csir-today'!$E$2</f>
         <v>8173</v>
       </c>
       <c r="E27">
-        <f>'[1]csir-today'!$E$2</f>
         <v>8173</v>
       </c>
       <c r="F27">
-        <f>'[1]csir-today'!$E$2</f>
         <v>8173</v>
       </c>
       <c r="G27">
-        <f>'[1]csir-today'!$E$2</f>
         <v>8173</v>
       </c>
       <c r="H27">
-        <f>'[1]csir-today'!$E$2</f>
         <v>8173</v>
       </c>
       <c r="I27" s="5" t="s">
@@ -2557,27 +2329,21 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <f>'[1]csir-today'!$D$2</f>
         <v>8975</v>
       </c>
       <c r="D29">
-        <f>'[1]csir-today'!$D$2</f>
         <v>8975</v>
       </c>
       <c r="E29">
-        <f>'[1]csir-today'!$D$2</f>
         <v>8975</v>
       </c>
       <c r="F29">
-        <f>'[1]csir-today'!$D$2</f>
         <v>8975</v>
       </c>
       <c r="G29">
-        <f>'[1]csir-today'!$D$2</f>
         <v>8975</v>
       </c>
       <c r="H29">
-        <f>'[1]csir-today'!$D$2</f>
         <v>8975</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -2632,27 +2398,21 @@
         <v>46</v>
       </c>
       <c r="C31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="D31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="E31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="F31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="G31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="H31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="I31" s="5" t="s">
@@ -4940,7 +4700,6 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <f>'[1]csir-today'!$B$2</f>
         <v>35463</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -5043,7 +4802,6 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <f>'[1]csir-today'!$E$2</f>
         <v>8173</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -5061,7 +4819,6 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <f>'[1]csir-today'!$C$2</f>
         <v>60447</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -5079,7 +4836,6 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <f>'[1]csir-today'!$D$2</f>
         <v>8975</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -5114,7 +4870,6 @@
         <v>46</v>
       </c>
       <c r="C31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -6185,7 +5940,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7103,27 +6858,21 @@
         <v>46</v>
       </c>
       <c r="C31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="D31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="E31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="F31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="G31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="H31">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="I31" s="5" t="s">
@@ -9090,19 +8839,15 @@
         <v>133</v>
       </c>
       <c r="B3">
-        <f>'[1]csir-today'!$B$2</f>
         <v>35463</v>
       </c>
       <c r="C3">
-        <f>'[1]csir-today'!$C$2</f>
         <v>60447</v>
       </c>
       <c r="D3">
-        <f>'[1]csir-today'!$D$2</f>
         <v>8975</v>
       </c>
       <c r="E3">
-        <f>'[1]csir-today'!$E$2</f>
         <v>8173</v>
       </c>
       <c r="F3" s="3">
@@ -9115,7 +8860,6 @@
         <v>12000</v>
       </c>
       <c r="I3">
-        <f>'[1]csir-today'!$I$2</f>
         <v>6</v>
       </c>
     </row>
@@ -9124,35 +8868,27 @@
         <v>134</v>
       </c>
       <c r="B4">
-        <f>'[1]csir-today'!$B$3</f>
         <v>2.6</v>
       </c>
       <c r="C4">
-        <f>'[1]csir-today'!$C$3</f>
         <v>1.6</v>
       </c>
       <c r="D4">
-        <f>'[1]csir-today'!$D$3</f>
         <v>1.8</v>
       </c>
       <c r="E4">
-        <f>'[1]csir-today'!$E$3</f>
         <v>2</v>
       </c>
       <c r="F4">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="G4">
-        <f>'[1]csir-today'!$G$3</f>
         <v>2</v>
       </c>
       <c r="H4">
-        <f>'[1]csir-today'!$H$3</f>
         <v>2.5</v>
       </c>
       <c r="I4">
-        <f>'[1]csir-today'!$I$3</f>
         <v>2</v>
       </c>
     </row>
@@ -9161,35 +8897,27 @@
         <v>135</v>
       </c>
       <c r="B5">
-        <f>'[1]csir-today'!$B$4</f>
         <v>30</v>
       </c>
       <c r="C5">
-        <f>'[1]csir-today'!$C$4</f>
         <v>60</v>
       </c>
       <c r="D5">
-        <f>'[1]csir-today'!$D$4</f>
         <v>30</v>
       </c>
       <c r="E5">
-        <f>'[1]csir-today'!$E$4</f>
         <v>30</v>
       </c>
       <c r="F5">
-        <f>'[1]csir-today'!$F$4</f>
         <v>20</v>
       </c>
       <c r="G5">
-        <f>'[1]csir-today'!$G$4</f>
         <v>25</v>
       </c>
       <c r="H5">
-        <f>'[1]csir-today'!$H$4</f>
         <v>20</v>
       </c>
       <c r="I5">
-        <f>'[1]csir-today'!$I$4</f>
         <v>40</v>
       </c>
     </row>
@@ -9198,22 +8926,18 @@
         <v>136</v>
       </c>
       <c r="B6">
-        <f>'[1]csir-today'!$B$5</f>
         <v>80</v>
       </c>
       <c r="C6">
-        <f>'[1]csir-today'!$C$5</f>
         <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>154</v>
       </c>
       <c r="E6">
-        <f>'[1]csir-today'!$E$5</f>
         <v>2.4</v>
       </c>
       <c r="H6">
-        <f>'[1]csir-today'!$H$5</f>
         <v>3.2</v>
       </c>
     </row>
@@ -9222,19 +8946,15 @@
         <v>137</v>
       </c>
       <c r="B7">
-        <f>'[1]csir-today'!$B$6</f>
         <v>98</v>
       </c>
       <c r="C7">
-        <f>'[1]csir-today'!$C$6</f>
         <v>29</v>
       </c>
       <c r="D7">
-        <f>'[1]csir-today'!$D$6</f>
         <v>540</v>
       </c>
       <c r="E7">
-        <f>'[1]csir-today'!$E$6</f>
         <v>540</v>
       </c>
     </row>
@@ -9243,23 +8963,18 @@
         <v>138</v>
       </c>
       <c r="B8">
-        <f>'[1]csir-today'!$B$7</f>
         <v>0.37</v>
       </c>
       <c r="C8">
-        <f>'[1]csir-today'!$C$7</f>
         <v>0.34</v>
       </c>
       <c r="D8">
-        <f>'[1]csir-today'!$D$7</f>
         <v>0.49</v>
       </c>
       <c r="E8">
-        <f>'[1]csir-today'!$E$7</f>
         <v>0.31</v>
       </c>
       <c r="H8">
-        <f>'[1]csir-today'!$H$7</f>
         <v>0.89</v>
       </c>
     </row>
@@ -9268,19 +8983,15 @@
         <v>139</v>
       </c>
       <c r="B9">
-        <f>'[1]csir-today'!$B$8</f>
         <v>348</v>
       </c>
       <c r="C9">
-        <f>'[1]csir-today'!$C$8</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>'[1]csir-today'!$D$8</f>
         <v>181</v>
       </c>
       <c r="E9">
-        <f>'[1]csir-today'!$E$8</f>
         <v>181</v>
       </c>
     </row>
@@ -9289,19 +9000,15 @@
         <v>140</v>
       </c>
       <c r="B10" s="2">
-        <f>'[1]csir-today'!$B$9</f>
         <v>0.18344883815735799</v>
       </c>
       <c r="C10" s="2">
-        <f>'[1]csir-today'!$C$9</f>
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <f>'[1]csir-today'!$D$9</f>
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f>'[1]csir-today'!$E$9</f>
         <v>0</v>
       </c>
     </row>
@@ -9310,19 +9017,15 @@
         <v>141</v>
       </c>
       <c r="B11" s="2">
-        <f>'[1]csir-today'!$B$10</f>
         <v>0.69710558499796205</v>
       </c>
       <c r="C11" s="2">
-        <f>'[1]csir-today'!$C$10</f>
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f>'[1]csir-today'!$D$10</f>
         <v>9.74E-2</v>
       </c>
       <c r="E11" s="2">
-        <f>'[1]csir-today'!$E$10</f>
         <v>9.3758138727320098E-2</v>
       </c>
     </row>
@@ -9331,19 +9034,15 @@
         <v>142</v>
       </c>
       <c r="B12" s="2">
-        <f>'[1]csir-today'!$B$11</f>
         <v>3.6689767631471699E-2</v>
       </c>
       <c r="C12" s="2">
-        <f>'[1]csir-today'!$C$11</f>
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f>'[1]csir-today'!$D$11</f>
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f>'[1]csir-today'!$E$11</f>
         <v>0</v>
       </c>
     </row>
@@ -9352,19 +9051,15 @@
         <v>143</v>
       </c>
       <c r="B13" s="2">
-        <f>'[1]csir-today'!$B$12</f>
         <v>3.6689767631471699E-2</v>
       </c>
       <c r="C13" s="2">
-        <f>'[1]csir-today'!$C$12</f>
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f>'[1]csir-today'!$D$12</f>
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <f>'[1]csir-today'!$E$12</f>
         <v>3.1252712909106702E-2</v>
       </c>
     </row>
@@ -9373,19 +9068,15 @@
         <v>144</v>
       </c>
       <c r="B14">
-        <f>'[1]csir-today'!$B$13</f>
         <v>84.8</v>
       </c>
       <c r="C14">
-        <f>'[1]csir-today'!$C$13</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>'[1]csir-today'!$D$13</f>
         <v>9.6</v>
       </c>
       <c r="E14">
-        <f>'[1]csir-today'!$E$13</f>
         <v>0</v>
       </c>
     </row>
@@ -9425,19 +9116,15 @@
         <v>133</v>
       </c>
       <c r="B18">
-        <f>'[1]csir-today'!$B$2</f>
         <v>35463</v>
       </c>
       <c r="C18">
-        <f>'[1]csir-today'!$C$2</f>
         <v>60447</v>
       </c>
       <c r="D18">
-        <f>'[1]csir-today'!$D$2</f>
         <v>8975</v>
       </c>
       <c r="E18">
-        <f>'[1]csir-today'!$E$2</f>
         <v>8173</v>
       </c>
       <c r="F18" s="1">
@@ -9450,7 +9137,6 @@
         <v>6000</v>
       </c>
       <c r="I18">
-        <f>'[1]csir-today'!$I$2</f>
         <v>6</v>
       </c>
     </row>
@@ -9459,35 +9145,27 @@
         <v>134</v>
       </c>
       <c r="B19">
-        <f>'[1]csir-today'!$B$3</f>
         <v>2.6</v>
       </c>
       <c r="C19">
-        <f>'[1]csir-today'!$C$3</f>
         <v>1.6</v>
       </c>
       <c r="D19">
-        <f>'[1]csir-today'!$D$3</f>
         <v>1.8</v>
       </c>
       <c r="E19">
-        <f>'[1]csir-today'!$E$3</f>
         <v>2</v>
       </c>
       <c r="F19">
-        <f>'[1]csir-today'!$F$3</f>
         <v>4</v>
       </c>
       <c r="G19">
-        <f>'[1]csir-today'!$G$3</f>
         <v>2</v>
       </c>
       <c r="H19">
-        <f>'[1]csir-today'!$H$3</f>
         <v>2.5</v>
       </c>
       <c r="I19">
-        <f>'[1]csir-today'!$I$3</f>
         <v>2</v>
       </c>
     </row>
@@ -9496,35 +9174,27 @@
         <v>135</v>
       </c>
       <c r="B20">
-        <f>'[1]csir-today'!$B$4</f>
         <v>30</v>
       </c>
       <c r="C20">
-        <f>'[1]csir-today'!$C$4</f>
         <v>60</v>
       </c>
       <c r="D20">
-        <f>'[1]csir-today'!$D$4</f>
         <v>30</v>
       </c>
       <c r="E20">
-        <f>'[1]csir-today'!$E$4</f>
         <v>30</v>
       </c>
       <c r="F20">
-        <f>'[1]csir-today'!$F$4</f>
         <v>20</v>
       </c>
       <c r="G20">
-        <f>'[1]csir-today'!$G$4</f>
         <v>25</v>
       </c>
       <c r="H20">
-        <f>'[1]csir-today'!$H$4</f>
         <v>20</v>
       </c>
       <c r="I20">
-        <f>'[1]csir-today'!$I$4</f>
         <v>40</v>
       </c>
     </row>
@@ -9533,23 +9203,18 @@
         <v>136</v>
       </c>
       <c r="B21">
-        <f>'[1]csir-today'!$B$5</f>
         <v>80</v>
       </c>
       <c r="C21">
-        <f>'[1]csir-today'!$C$5</f>
         <v>37</v>
       </c>
       <c r="D21">
-        <f>'[1]csir-today'!$D$5</f>
         <v>22</v>
       </c>
       <c r="E21">
-        <f>'[1]csir-today'!$E$5</f>
         <v>2.4</v>
       </c>
       <c r="H21">
-        <f>'[1]csir-today'!$H$5</f>
         <v>3.2</v>
       </c>
     </row>
@@ -9558,19 +9223,15 @@
         <v>137</v>
       </c>
       <c r="B22">
-        <f>'[1]csir-today'!$B$6</f>
         <v>98</v>
       </c>
       <c r="C22">
-        <f>'[1]csir-today'!$C$6</f>
         <v>29</v>
       </c>
       <c r="D22">
-        <f>'[1]csir-today'!$D$6</f>
         <v>540</v>
       </c>
       <c r="E22">
-        <f>'[1]csir-today'!$E$6</f>
         <v>540</v>
       </c>
     </row>
@@ -9579,23 +9240,18 @@
         <v>138</v>
       </c>
       <c r="B23">
-        <f>'[1]csir-today'!$B$7</f>
         <v>0.37</v>
       </c>
       <c r="C23">
-        <f>'[1]csir-today'!$C$7</f>
         <v>0.34</v>
       </c>
       <c r="D23">
-        <f>'[1]csir-today'!$D$7</f>
         <v>0.49</v>
       </c>
       <c r="E23">
-        <f>'[1]csir-today'!$E$7</f>
         <v>0.31</v>
       </c>
       <c r="H23">
-        <f>'[1]csir-today'!$H$7</f>
         <v>0.89</v>
       </c>
     </row>
@@ -9604,19 +9260,15 @@
         <v>139</v>
       </c>
       <c r="B24">
-        <f>'[1]csir-today'!$B$8</f>
         <v>348</v>
       </c>
       <c r="C24">
-        <f>'[1]csir-today'!$C$8</f>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>'[1]csir-today'!$D$8</f>
         <v>181</v>
       </c>
       <c r="E24">
-        <f>'[1]csir-today'!$E$8</f>
         <v>181</v>
       </c>
     </row>
@@ -9625,19 +9277,15 @@
         <v>140</v>
       </c>
       <c r="B25" s="2">
-        <f>'[1]csir-today'!$B$9</f>
         <v>0.18344883815735799</v>
       </c>
       <c r="C25" s="2">
-        <f>'[1]csir-today'!$C$9</f>
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <f>'[1]csir-today'!$D$9</f>
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <f>'[1]csir-today'!$E$9</f>
         <v>0</v>
       </c>
     </row>
@@ -9646,19 +9294,15 @@
         <v>141</v>
       </c>
       <c r="B26" s="2">
-        <f>'[1]csir-today'!$B$10</f>
         <v>0.69710558499796205</v>
       </c>
       <c r="C26" s="2">
-        <f>'[1]csir-today'!$C$10</f>
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <f>'[1]csir-today'!$D$10</f>
         <v>9.74E-2</v>
       </c>
       <c r="E26" s="2">
-        <f>'[1]csir-today'!$E$10</f>
         <v>9.3758138727320098E-2</v>
       </c>
     </row>
@@ -9667,19 +9311,15 @@
         <v>142</v>
       </c>
       <c r="B27" s="2">
-        <f>'[1]csir-today'!$B$11</f>
         <v>3.6689767631471699E-2</v>
       </c>
       <c r="C27" s="2">
-        <f>'[1]csir-today'!$C$11</f>
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <f>'[1]csir-today'!$D$11</f>
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <f>'[1]csir-today'!$E$11</f>
         <v>0</v>
       </c>
     </row>
@@ -9688,19 +9328,15 @@
         <v>143</v>
       </c>
       <c r="B28" s="2">
-        <f>'[1]csir-today'!$B$12</f>
         <v>3.6689767631471699E-2</v>
       </c>
       <c r="C28" s="2">
-        <f>'[1]csir-today'!$C$12</f>
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <f>'[1]csir-today'!$D$12</f>
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <f>'[1]csir-today'!$E$12</f>
         <v>3.1252712909106702E-2</v>
       </c>
     </row>
@@ -9709,19 +9345,15 @@
         <v>144</v>
       </c>
       <c r="B29">
-        <f>'[1]csir-today'!$B$13</f>
         <v>84.8</v>
       </c>
       <c r="C29">
-        <f>'[1]csir-today'!$C$13</f>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>'[1]csir-today'!$D$13</f>
         <v>9.6</v>
       </c>
       <c r="E29">
-        <f>'[1]csir-today'!$E$13</f>
         <v>0</v>
       </c>
     </row>
